--- a/table_tests.xlsx
+++ b/table_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brigitamilanic/Documents/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F474428A-09DD-DB45-8E6C-DF9DEE3152BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38CA8AD-0BC8-E246-82AC-C3DD44848CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="29160" windowHeight="16980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -532,7 +532,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
